--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H2">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I2">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J2">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>63.71192940416967</v>
+        <v>9.90982189706</v>
       </c>
       <c r="R2">
-        <v>573.4073646375271</v>
+        <v>89.18839707354</v>
       </c>
       <c r="S2">
-        <v>0.10649278294719</v>
+        <v>0.04458587742440794</v>
       </c>
       <c r="T2">
-        <v>0.10649278294719</v>
+        <v>0.04458587742440795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H3">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I3">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J3">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>0.703647268612889</v>
+        <v>0.2471890721155555</v>
       </c>
       <c r="R3">
-        <v>6.332825417516</v>
+        <v>2.22470164904</v>
       </c>
       <c r="S3">
-        <v>0.001176127556464668</v>
+        <v>0.001112143263973997</v>
       </c>
       <c r="T3">
-        <v>0.001176127556464667</v>
+        <v>0.001112143263973997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H4">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I4">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J4">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>57.92051569292321</v>
+        <v>7.705601635191111</v>
       </c>
       <c r="R4">
-        <v>521.284641236309</v>
+        <v>69.35041471672</v>
       </c>
       <c r="S4">
-        <v>0.09681259009983942</v>
+        <v>0.03466873709303235</v>
       </c>
       <c r="T4">
-        <v>0.09681259009983939</v>
+        <v>0.03466873709303235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>181.2005669411514</v>
+        <v>80.22881603019398</v>
       </c>
       <c r="R5">
-        <v>1630.805102470362</v>
+        <v>722.0593442717459</v>
       </c>
       <c r="S5">
-        <v>0.3028718926837103</v>
+        <v>0.3609623053355614</v>
       </c>
       <c r="T5">
-        <v>0.3028718926837102</v>
+        <v>0.3609623053355615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,16 +800,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
         <v>2.001215238521778</v>
@@ -818,10 +818,10 @@
         <v>18.010937146696</v>
       </c>
       <c r="S6">
-        <v>0.003344977652059008</v>
+        <v>0.009003788186249887</v>
       </c>
       <c r="T6">
-        <v>0.003344977652059007</v>
+        <v>0.009003788186249889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>164.7294373162504</v>
+        <v>62.38369391634755</v>
       </c>
       <c r="R7">
-        <v>1482.564935846254</v>
+        <v>561.4532452471279</v>
       </c>
       <c r="S7">
-        <v>0.275340840831358</v>
+        <v>0.2806742400750146</v>
       </c>
       <c r="T7">
-        <v>0.2753408408313579</v>
+        <v>0.2806742400750146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H8">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>66.66546653217267</v>
+        <v>33.168836090962</v>
       </c>
       <c r="R8">
-        <v>599.9891987895541</v>
+        <v>298.519524818658</v>
       </c>
       <c r="S8">
-        <v>0.1114295411216851</v>
+        <v>0.1492319110902136</v>
       </c>
       <c r="T8">
-        <v>0.1114295411216851</v>
+        <v>0.1492319110902136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H9">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>0.7362667223368889</v>
+        <v>0.827358342223111</v>
       </c>
       <c r="R9">
-        <v>6.626400501032</v>
+        <v>7.446225080007999</v>
       </c>
       <c r="S9">
-        <v>0.001230650099382015</v>
+        <v>0.003722417820986762</v>
       </c>
       <c r="T9">
-        <v>0.001230650099382014</v>
+        <v>0.003722417820986763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H10">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>60.60557632712421</v>
+        <v>25.79116358243822</v>
       </c>
       <c r="R10">
-        <v>545.4501869441179</v>
+        <v>232.120472241944</v>
       </c>
       <c r="S10">
-        <v>0.1013005970083117</v>
+        <v>0.1160385797105595</v>
       </c>
       <c r="T10">
-        <v>0.1013005970083117</v>
+        <v>0.1160385797105595</v>
       </c>
     </row>
   </sheetData>
